--- a/Code/Results/Cases/Case_2_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_195/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.414925274245434</v>
+        <v>1.599214545649147</v>
       </c>
       <c r="C2">
-        <v>0.4207411346460503</v>
+        <v>0.2830928052514423</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09196478513706197</v>
+        <v>0.2280049581199997</v>
       </c>
       <c r="F2">
-        <v>0.9928670275129861</v>
+        <v>1.89807319322253</v>
       </c>
       <c r="G2">
-        <v>0.0008001390216472244</v>
+        <v>0.002452927055119843</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05166245490785926</v>
+        <v>0.04667749335544613</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5098310319639836</v>
+        <v>0.5137306350064961</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.452522879604317</v>
+        <v>3.130693982595602</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.96931006783791</v>
+        <v>1.464342961756472</v>
       </c>
       <c r="C3">
-        <v>0.3868844061830146</v>
+        <v>0.2717892734438578</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08949173787022069</v>
+        <v>0.2286328163377558</v>
       </c>
       <c r="F3">
-        <v>0.9475558352644242</v>
+        <v>1.904726620059989</v>
       </c>
       <c r="G3">
-        <v>0.0008048734760944592</v>
+        <v>0.002455993654034955</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04901253034744357</v>
+        <v>0.04584481530803686</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4520140045118808</v>
+        <v>0.498798079695689</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.429951456006805</v>
+        <v>3.16385681041784</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.696466235202308</v>
+        <v>1.381616042105634</v>
       </c>
       <c r="C4">
-        <v>0.3661515994972007</v>
+        <v>0.2648356600484476</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08808353895746635</v>
+        <v>0.22909742938403</v>
       </c>
       <c r="F4">
-        <v>0.9220583313451343</v>
+        <v>1.910015492209865</v>
       </c>
       <c r="G4">
-        <v>0.0008078705125396596</v>
+        <v>0.00245797623172033</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04741408354124133</v>
+        <v>0.04534502071383884</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.416777948676966</v>
+        <v>0.4897718699639455</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.421442904611951</v>
+        <v>3.186700574502481</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.585424425838085</v>
+        <v>1.347927424052102</v>
       </c>
       <c r="C5">
-        <v>0.357713538367932</v>
+        <v>0.2619989036909089</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08753644237787661</v>
+        <v>0.2293066908364274</v>
       </c>
       <c r="F5">
-        <v>0.9122204885239782</v>
+        <v>1.912473239244854</v>
       </c>
       <c r="G5">
-        <v>0.0008091150001179762</v>
+        <v>0.002458809287880393</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04676951350141678</v>
+        <v>0.04514426399664373</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4024780141452027</v>
+        <v>0.4861297082434248</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.419246840332463</v>
+        <v>3.196632461041872</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.566993383185149</v>
+        <v>1.34233491838944</v>
       </c>
       <c r="C6">
-        <v>0.356312964022365</v>
+        <v>0.2615276815167817</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08744718596946299</v>
+        <v>0.2293426431989189</v>
       </c>
       <c r="F6">
-        <v>0.9106194021057092</v>
+        <v>1.912899610675439</v>
       </c>
       <c r="G6">
-        <v>0.0008093230605582075</v>
+        <v>0.002458949136766388</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04666288373670824</v>
+        <v>0.0451111053231763</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4001068823993421</v>
+        <v>0.4855271180604888</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.418956873960809</v>
+        <v>3.198319228718887</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.694968163810927</v>
+        <v>1.38116160877945</v>
       </c>
       <c r="C7">
-        <v>0.3660377614640993</v>
+        <v>0.2647974148308947</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0880760535338716</v>
+        <v>0.2291001708218179</v>
       </c>
       <c r="F7">
-        <v>0.9219234580081306</v>
+        <v>1.910047413718701</v>
       </c>
       <c r="G7">
-        <v>0.0008078872016258448</v>
+        <v>0.002457987364647778</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0474053635588696</v>
+        <v>0.04534230140360407</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4165848650053618</v>
+        <v>0.4897226039944655</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.421408235557038</v>
+        <v>3.186831998989106</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.261088008641252</v>
+        <v>1.552694351494949</v>
       </c>
       <c r="C8">
-        <v>0.4090538316318373</v>
+        <v>0.2791982124559524</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09108859291377769</v>
+        <v>0.2282050466835059</v>
       </c>
       <c r="F8">
-        <v>0.9767417868048653</v>
+        <v>1.900117369141768</v>
       </c>
       <c r="G8">
-        <v>0.0008017530934890086</v>
+        <v>0.002453963777001599</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05074257852525221</v>
+        <v>0.04638802145516152</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4898364089486762</v>
+        <v>0.508552485178825</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.443583843820875</v>
+        <v>3.141612757505413</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.379725416017038</v>
+        <v>1.889674101243202</v>
       </c>
       <c r="C9">
-        <v>0.4940090536670141</v>
+        <v>0.3073253834274965</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09791780007338957</v>
+        <v>0.2270759022504372</v>
       </c>
       <c r="F9">
-        <v>1.104204559871903</v>
+        <v>1.890204852547271</v>
       </c>
       <c r="G9">
-        <v>0.0007904134626118845</v>
+        <v>0.002446860916222204</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05753330321402572</v>
+        <v>0.04852859698940293</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6359358614488855</v>
+        <v>0.5465982234447608</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.533087787372011</v>
+        <v>3.072682222941722</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.21044845066865</v>
+        <v>2.137556349619445</v>
       </c>
       <c r="C10">
-        <v>0.5570436243206416</v>
+        <v>0.3279131025152537</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1035667605625719</v>
+        <v>0.2266262434611441</v>
       </c>
       <c r="F10">
-        <v>1.212298555891152</v>
+        <v>1.888766877371779</v>
       </c>
       <c r="G10">
-        <v>0.0007824647505691389</v>
+        <v>0.002442117564009046</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06270275157969252</v>
+        <v>0.05015481606962879</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7453194457487768</v>
+        <v>0.5752236209148975</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.63221739762426</v>
+        <v>3.034150908277923</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.591194743402411</v>
+        <v>2.250378369387647</v>
       </c>
       <c r="C11">
-        <v>0.5859162981858219</v>
+        <v>0.3372605684852488</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1062904415188868</v>
+        <v>0.2265038068017553</v>
       </c>
       <c r="F11">
-        <v>1.265159462150834</v>
+        <v>1.889385585564924</v>
       </c>
       <c r="G11">
-        <v>0.0007789227019964634</v>
+        <v>0.00244006181666956</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06510108880879528</v>
+        <v>0.05090599888769276</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7956582993973598</v>
+        <v>0.5883903910086588</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.685848127897003</v>
+        <v>3.019268309459335</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.735863948370081</v>
+        <v>2.293108108847264</v>
       </c>
       <c r="C12">
-        <v>0.5968837196169545</v>
+        <v>0.3407974462729157</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1073454583903413</v>
+        <v>0.2264692182174137</v>
       </c>
       <c r="F12">
-        <v>1.285756679057528</v>
+        <v>1.88980316389457</v>
       </c>
       <c r="G12">
-        <v>0.0007775912366317867</v>
+        <v>0.002439297951251904</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0660166768878625</v>
+        <v>0.05119206819105671</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8148156225361163</v>
+        <v>0.5933969234296796</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.707501811010502</v>
+        <v>3.014014390836508</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.704683762106583</v>
+        <v>2.283905238141131</v>
       </c>
       <c r="C13">
-        <v>0.5945200853049357</v>
+        <v>0.3400358445282734</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1071171664168595</v>
+        <v>0.2264761442858081</v>
       </c>
       <c r="F13">
-        <v>1.281294074138927</v>
+        <v>1.889705075181652</v>
       </c>
       <c r="G13">
-        <v>0.0007778775674556116</v>
+        <v>0.002439461814973345</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06581914858382731</v>
+        <v>0.05113038676094561</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8106853235196922</v>
+        <v>0.5923177669939719</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.702776511487116</v>
+        <v>3.015128913666814</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.603086487758333</v>
+        <v>2.253893652173872</v>
       </c>
       <c r="C14">
-        <v>0.5868178804335855</v>
+        <v>0.3375516069950208</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1063767561650764</v>
+        <v>0.2265007253651916</v>
       </c>
       <c r="F14">
-        <v>1.266842086377991</v>
+        <v>1.889416265198733</v>
       </c>
       <c r="G14">
-        <v>0.000778812969235598</v>
+        <v>0.002439998680687665</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06517626261894804</v>
+        <v>0.05092950181848011</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7972324073784591</v>
+        <v>0.5888018709329685</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.687601927617862</v>
+        <v>3.018828406702994</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.540921367821284</v>
+        <v>2.23551147488854</v>
       </c>
       <c r="C15">
-        <v>0.5821046531647482</v>
+        <v>0.3360295681200682</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1059263551506149</v>
+        <v>0.2265173145421961</v>
       </c>
       <c r="F15">
-        <v>1.25806689174955</v>
+        <v>1.889263237596097</v>
       </c>
       <c r="G15">
-        <v>0.0007793871856995204</v>
+        <v>0.002440329426034098</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06478345976587718</v>
+        <v>0.05080666319273064</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.789004856639707</v>
+        <v>0.5866509526646553</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.678485856145841</v>
+        <v>3.021144215374505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.185629701017945</v>
+        <v>2.130184182528353</v>
       </c>
       <c r="C16">
-        <v>0.5551611689548679</v>
+        <v>0.3273018429252375</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1033919834148911</v>
+        <v>0.2266358945690143</v>
       </c>
       <c r="F16">
-        <v>1.208922336102958</v>
+        <v>1.888752077961669</v>
       </c>
       <c r="G16">
-        <v>0.0007826976519370209</v>
+        <v>0.002442253959087403</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0625470107589905</v>
+        <v>0.05010595167593834</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7420423289392488</v>
+        <v>0.57436603405651</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.628894084333098</v>
+        <v>3.035176873180063</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.968453193826349</v>
+        <v>2.065583005952533</v>
       </c>
       <c r="C17">
-        <v>0.5386866659435441</v>
+        <v>0.3219429023720579</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1018776759754907</v>
+        <v>0.2267296480772707</v>
       </c>
       <c r="F17">
-        <v>1.179752440924403</v>
+        <v>1.88876468572235</v>
       </c>
       <c r="G17">
-        <v>0.0007847468905385704</v>
+        <v>0.002443460679545516</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06118744726283154</v>
+        <v>0.04967898975170471</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7133888574391136</v>
+        <v>0.5668665560729664</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.60073792219805</v>
+        <v>3.044464010554947</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.843801745218457</v>
+        <v>2.028431803405056</v>
       </c>
       <c r="C18">
-        <v>0.5292292386791644</v>
+        <v>0.318858900926017</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1010210809572136</v>
+        <v>0.2267913036435161</v>
       </c>
       <c r="F18">
-        <v>1.163318663837828</v>
+        <v>1.888891729031855</v>
       </c>
       <c r="G18">
-        <v>0.0007859325612052703</v>
+        <v>0.002444164360831474</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06040981688684965</v>
+        <v>0.04943448791206606</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6969619450179039</v>
+        <v>0.5625667130128136</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.585339118184663</v>
+        <v>3.050054649937209</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.801639719767024</v>
+        <v>2.015854082889803</v>
       </c>
       <c r="C19">
-        <v>0.5260300949474868</v>
+        <v>0.3178144290732519</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1007334815277403</v>
+        <v>0.22681350796476</v>
       </c>
       <c r="F19">
-        <v>1.157812102243156</v>
+        <v>1.888955310334907</v>
       </c>
       <c r="G19">
-        <v>0.0007863352347747483</v>
+        <v>0.002444404267317513</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06014725311403524</v>
+        <v>0.04935188933753665</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6914089745137062</v>
+        <v>0.5611132143991853</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.580258622123296</v>
+        <v>3.051990255154493</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.991544257587748</v>
+        <v>2.072459337724013</v>
       </c>
       <c r="C20">
-        <v>0.5404384756737386</v>
+        <v>0.322513546265526</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1020373764242386</v>
+        <v>0.2267188679605141</v>
       </c>
       <c r="F20">
-        <v>1.182821679763009</v>
+        <v>1.888750943780352</v>
       </c>
       <c r="G20">
-        <v>0.0007845280263829585</v>
+        <v>0.002443331228484441</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06133171978188301</v>
+        <v>0.04972432948301986</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7164334177783047</v>
+        <v>0.5676634767510791</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.603652004560956</v>
+        <v>3.043449606249311</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.632914133521751</v>
+        <v>2.262708622289381</v>
       </c>
       <c r="C21">
-        <v>0.5890792364250217</v>
+        <v>0.3382813656144776</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1065935792521842</v>
+        <v>0.2264931859810488</v>
       </c>
       <c r="F21">
-        <v>1.271070830954358</v>
+        <v>1.889496119328271</v>
       </c>
       <c r="G21">
-        <v>0.0007785379588566883</v>
+        <v>0.002439840594635874</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06536488759062564</v>
+        <v>0.05098846304694149</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8011811757499174</v>
+        <v>0.5898340189870623</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.692021585311949</v>
+        <v>3.017731403028705</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.054977930914447</v>
+        <v>2.387084433547159</v>
       </c>
       <c r="C22">
-        <v>0.6210697030812184</v>
+        <v>0.3485701005223802</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1097097552198107</v>
+        <v>0.2264143114892043</v>
       </c>
       <c r="F22">
-        <v>1.332153087699041</v>
+        <v>1.891051587775976</v>
       </c>
       <c r="G22">
-        <v>0.0007746799968010225</v>
+        <v>0.002437644340617464</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06804422799549315</v>
+        <v>0.05182403474042729</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8571291794446267</v>
+        <v>0.6044434753386554</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.757677163040512</v>
+        <v>3.003149123574872</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.829421798178316</v>
+        <v>2.320700004925925</v>
       </c>
       <c r="C23">
-        <v>0.603975448884654</v>
+        <v>0.3430803849446988</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1080334073946254</v>
+        <v>0.2264501401244345</v>
       </c>
       <c r="F23">
-        <v>1.299223200784212</v>
+        <v>1.890123558279825</v>
       </c>
       <c r="G23">
-        <v>0.0007767341354519683</v>
+        <v>0.002438808761157654</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06661000096731584</v>
+        <v>0.05137722450979254</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8272132558703618</v>
+        <v>0.5966352701689743</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.72187114641946</v>
+        <v>3.010727821106173</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.981104151265754</v>
+        <v>2.069350582634911</v>
       </c>
       <c r="C24">
-        <v>0.5396464393474218</v>
+        <v>0.3222555677249659</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.101965132353584</v>
+        <v>0.2267237174917405</v>
       </c>
       <c r="F24">
-        <v>1.181433032819712</v>
+        <v>1.888756783374149</v>
       </c>
       <c r="G24">
-        <v>0.0007846269513070183</v>
+        <v>0.002443389722531578</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06126648176433847</v>
+        <v>0.04970382838452636</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7150568285536139</v>
+        <v>0.5673031524296306</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.602332100526723</v>
+        <v>3.043907435613761</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.075833758142551</v>
+        <v>1.798454278962879</v>
       </c>
       <c r="C25">
-        <v>0.4709374681435747</v>
+        <v>0.2997292094315185</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09596473968815644</v>
+        <v>0.2273145162331041</v>
       </c>
       <c r="F25">
-        <v>1.067360122325496</v>
+        <v>1.891861243200651</v>
       </c>
       <c r="G25">
-        <v>0.0007934110774644327</v>
+        <v>0.002448698640625379</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05566691013453351</v>
+        <v>0.04794002190616453</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5960953349851223</v>
+        <v>0.5361869226713765</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.503423279024844</v>
+        <v>3.089208205811104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_195/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.599214545649147</v>
+        <v>3.414925274245434</v>
       </c>
       <c r="C2">
-        <v>0.2830928052514423</v>
+        <v>0.4207411346460788</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2280049581199997</v>
+        <v>0.0919647851370371</v>
       </c>
       <c r="F2">
-        <v>1.89807319322253</v>
+        <v>0.9928670275129861</v>
       </c>
       <c r="G2">
-        <v>0.002452927055119843</v>
+        <v>0.000800139021510339</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04667749335544613</v>
+        <v>0.05166245490787347</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5137306350064961</v>
+        <v>0.5098310319639552</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.130693982595602</v>
+        <v>1.452522879604317</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.464342961756472</v>
+        <v>2.969310067838194</v>
       </c>
       <c r="C3">
-        <v>0.2717892734438578</v>
+        <v>0.3868844061830146</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2286328163377558</v>
+        <v>0.08949173787022779</v>
       </c>
       <c r="F3">
-        <v>1.904726620059989</v>
+        <v>0.9475558352644242</v>
       </c>
       <c r="G3">
-        <v>0.002455993654034955</v>
+        <v>0.0008048734760544672</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04584481530803686</v>
+        <v>0.04901253034751107</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.498798079695689</v>
+        <v>0.4520140045119803</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.16385681041784</v>
+        <v>1.429951456006734</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.381616042105634</v>
+        <v>2.696466235202422</v>
       </c>
       <c r="C4">
-        <v>0.2648356600484476</v>
+        <v>0.3661515994974422</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.22909742938403</v>
+        <v>0.08808353895743792</v>
       </c>
       <c r="F4">
-        <v>1.910015492209865</v>
+        <v>0.9220583313451272</v>
       </c>
       <c r="G4">
-        <v>0.00245797623172033</v>
+        <v>0.000807870512540334</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04534502071383884</v>
+        <v>0.04741408354119159</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4897718699639455</v>
+        <v>0.4167779486770087</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.186700574502481</v>
+        <v>1.421442904611951</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.347927424052102</v>
+        <v>2.585424425837914</v>
       </c>
       <c r="C5">
-        <v>0.2619989036909089</v>
+        <v>0.357713538367733</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2293066908364274</v>
+        <v>0.08753644237788727</v>
       </c>
       <c r="F5">
-        <v>1.912473239244854</v>
+        <v>0.9122204885239782</v>
       </c>
       <c r="G5">
-        <v>0.002458809287880393</v>
+        <v>0.0008091150001181006</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04514426399664373</v>
+        <v>0.04676951350133507</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4861297082434248</v>
+        <v>0.4024780141452453</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.196632461041872</v>
+        <v>1.419246840332463</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.34233491838944</v>
+        <v>2.566993383185206</v>
       </c>
       <c r="C6">
-        <v>0.2615276815167817</v>
+        <v>0.3563129640220666</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2293426431989189</v>
+        <v>0.08744718596947365</v>
       </c>
       <c r="F6">
-        <v>1.912899610675439</v>
+        <v>0.9106194021057306</v>
       </c>
       <c r="G6">
-        <v>0.002458949136766388</v>
+        <v>0.000809323060615319</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0451111053231763</v>
+        <v>0.046662883736726</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4855271180604888</v>
+        <v>0.4001068823992853</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.198319228718887</v>
+        <v>1.418956873960823</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.38116160877945</v>
+        <v>2.694968163811041</v>
       </c>
       <c r="C7">
-        <v>0.2647974148308947</v>
+        <v>0.3660377614638861</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2291001708218179</v>
+        <v>0.08807605353387871</v>
       </c>
       <c r="F7">
-        <v>1.910047413718701</v>
+        <v>0.9219234580081377</v>
       </c>
       <c r="G7">
-        <v>0.002457987364647778</v>
+        <v>0.0008078872016448296</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04534230140360407</v>
+        <v>0.04740536355886604</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4897226039944655</v>
+        <v>0.4165848650053476</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.186831998989106</v>
+        <v>1.421408235556996</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.552694351494949</v>
+        <v>3.261088008641138</v>
       </c>
       <c r="C8">
-        <v>0.2791982124559524</v>
+        <v>0.4090538316320362</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2282050466835059</v>
+        <v>0.09108859291376703</v>
       </c>
       <c r="F8">
-        <v>1.900117369141768</v>
+        <v>0.9767417868048653</v>
       </c>
       <c r="G8">
-        <v>0.002453963777001599</v>
+        <v>0.0008017530934307074</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04638802145516152</v>
+        <v>0.05074257852521669</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.508552485178825</v>
+        <v>0.4898364089486762</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.141612757505413</v>
+        <v>1.443583843820903</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.889674101243202</v>
+        <v>4.379725416016925</v>
       </c>
       <c r="C9">
-        <v>0.3073253834274965</v>
+        <v>0.4940090536670994</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2270759022504372</v>
+        <v>0.09791780007339312</v>
       </c>
       <c r="F9">
-        <v>1.890204852547271</v>
+        <v>1.104204559871917</v>
       </c>
       <c r="G9">
-        <v>0.002446860916222204</v>
+        <v>0.0007904134626912323</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04852859698940293</v>
+        <v>0.05753330321400796</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5465982234447608</v>
+        <v>0.6359358614488571</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.072682222941722</v>
+        <v>1.533087787372068</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.137556349619445</v>
+        <v>5.21044845066865</v>
       </c>
       <c r="C10">
-        <v>0.3279131025152537</v>
+        <v>0.5570436243206416</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2266262434611441</v>
+        <v>0.1035667605626003</v>
       </c>
       <c r="F10">
-        <v>1.888766877371779</v>
+        <v>1.212298555891167</v>
       </c>
       <c r="G10">
-        <v>0.002442117564009046</v>
+        <v>0.0007824647505976778</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05015481606962879</v>
+        <v>0.06270275157963567</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5752236209148975</v>
+        <v>0.7453194457488621</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.034150908277923</v>
+        <v>1.63221739762426</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.250378369387647</v>
+        <v>5.591194743402411</v>
       </c>
       <c r="C11">
-        <v>0.3372605684852488</v>
+        <v>0.5859162981860493</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2265038068017553</v>
+        <v>0.106290441518901</v>
       </c>
       <c r="F11">
-        <v>1.889385585564924</v>
+        <v>1.265159462150848</v>
       </c>
       <c r="G11">
-        <v>0.00244006181666956</v>
+        <v>0.0007789227020242401</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05090599888769276</v>
+        <v>0.06510108880877397</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5883903910086588</v>
+        <v>0.7956582993974166</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.019268309459335</v>
+        <v>1.685848127897032</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.293108108847264</v>
+        <v>5.735863948370479</v>
       </c>
       <c r="C12">
-        <v>0.3407974462729157</v>
+        <v>0.5968837196170966</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2264692182174137</v>
+        <v>0.1073454583903661</v>
       </c>
       <c r="F12">
-        <v>1.88980316389457</v>
+        <v>1.285756679057513</v>
       </c>
       <c r="G12">
-        <v>0.002439297951251904</v>
+        <v>0.0007775912366311019</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05119206819105671</v>
+        <v>0.06601667688781987</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5933969234296796</v>
+        <v>0.8148156225361163</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.014014390836508</v>
+        <v>1.707501811010559</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.283905238141131</v>
+        <v>5.704683762106299</v>
       </c>
       <c r="C13">
-        <v>0.3400358445282734</v>
+        <v>0.5945200853047368</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2264761442858081</v>
+        <v>0.1071171664168702</v>
       </c>
       <c r="F13">
-        <v>1.889705075181652</v>
+        <v>1.281294074138927</v>
       </c>
       <c r="G13">
-        <v>0.002439461814973345</v>
+        <v>0.0007778775674811844</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05113038676094561</v>
+        <v>0.06581914858386995</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5923177669939719</v>
+        <v>0.8106853235196354</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.015128913666814</v>
+        <v>1.702776511487116</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.253893652173872</v>
+        <v>5.603086487758389</v>
       </c>
       <c r="C14">
-        <v>0.3375516069950208</v>
+        <v>0.5868178804331592</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2265007253651916</v>
+        <v>0.1063767561651012</v>
       </c>
       <c r="F14">
-        <v>1.889416265198733</v>
+        <v>1.26684208637802</v>
       </c>
       <c r="G14">
-        <v>0.002439998680687665</v>
+        <v>0.0007788129692349467</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05092950181848011</v>
+        <v>0.06517626261892673</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5888018709329685</v>
+        <v>0.7972324073783739</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.018828406702994</v>
+        <v>1.687601927617919</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.23551147488854</v>
+        <v>5.540921367821397</v>
       </c>
       <c r="C15">
-        <v>0.3360295681200682</v>
+        <v>0.5821046531649188</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2265173145421961</v>
+        <v>0.1059263551506078</v>
       </c>
       <c r="F15">
-        <v>1.889263237596097</v>
+        <v>1.258066891749579</v>
       </c>
       <c r="G15">
-        <v>0.002440329426034098</v>
+        <v>0.0007793871857287224</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05080666319273064</v>
+        <v>0.06478345976594113</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5866509526646553</v>
+        <v>0.7890048566396501</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.021144215374505</v>
+        <v>1.678485856145755</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.130184182528353</v>
+        <v>5.185629701018058</v>
       </c>
       <c r="C16">
-        <v>0.3273018429252375</v>
+        <v>0.5551611689549532</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2266358945690143</v>
+        <v>0.1033919834148946</v>
       </c>
       <c r="F16">
-        <v>1.888752077961669</v>
+        <v>1.208922336102987</v>
       </c>
       <c r="G16">
-        <v>0.002442253959087403</v>
+        <v>0.0007826976519665746</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05010595167593834</v>
+        <v>0.0625470107589976</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.57436603405651</v>
+        <v>0.7420423289392204</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.035176873180063</v>
+        <v>1.628894084333012</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.065583005952533</v>
+        <v>4.968453193826406</v>
       </c>
       <c r="C17">
-        <v>0.3219429023720579</v>
+        <v>0.5386866659430893</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2267296480772707</v>
+        <v>0.1018776759754907</v>
       </c>
       <c r="F17">
-        <v>1.88876468572235</v>
+        <v>1.179752440924432</v>
       </c>
       <c r="G17">
-        <v>0.002443460679545516</v>
+        <v>0.0007847468905674634</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04967898975170471</v>
+        <v>0.06118744726271075</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5668665560729664</v>
+        <v>0.713388857439142</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.044464010554947</v>
+        <v>1.600737922198022</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.028431803405056</v>
+        <v>4.843801745218343</v>
       </c>
       <c r="C18">
-        <v>0.318858900926017</v>
+        <v>0.5292292386792781</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2267913036435161</v>
+        <v>0.1010210809572172</v>
       </c>
       <c r="F18">
-        <v>1.888891729031855</v>
+        <v>1.163318663837828</v>
       </c>
       <c r="G18">
-        <v>0.002444164360831474</v>
+        <v>0.0007859325612105941</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04943448791206606</v>
+        <v>0.06040981688674663</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5625667130128136</v>
+        <v>0.696961945017847</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.050054649937209</v>
+        <v>1.585339118184663</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.015854082889803</v>
+        <v>4.801639719766854</v>
       </c>
       <c r="C19">
-        <v>0.3178144290732519</v>
+        <v>0.5260300949477994</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.22681350796476</v>
+        <v>0.1007334815277297</v>
       </c>
       <c r="F19">
-        <v>1.888955310334907</v>
+        <v>1.157812102243156</v>
       </c>
       <c r="G19">
-        <v>0.002444404267317513</v>
+        <v>0.0007863352347463266</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04935188933753665</v>
+        <v>0.06014725311403879</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5611132143991853</v>
+        <v>0.6914089745137062</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.051990255154493</v>
+        <v>1.580258622123353</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.072459337724013</v>
+        <v>4.991544257587861</v>
       </c>
       <c r="C20">
-        <v>0.322513546265526</v>
+        <v>0.540438475673767</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2267188679605141</v>
+        <v>0.1020373764242066</v>
       </c>
       <c r="F20">
-        <v>1.888750943780352</v>
+        <v>1.182821679762995</v>
       </c>
       <c r="G20">
-        <v>0.002443331228484441</v>
+        <v>0.0007845280263546562</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04972432948301986</v>
+        <v>0.06133171978189367</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5676634767510791</v>
+        <v>0.7164334177783189</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.043449606249311</v>
+        <v>1.603652004560928</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.262708622289381</v>
+        <v>5.632914133521695</v>
       </c>
       <c r="C21">
-        <v>0.3382813656144776</v>
+        <v>0.5890792364247659</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2264931859810488</v>
+        <v>0.1065935792521699</v>
       </c>
       <c r="F21">
-        <v>1.889496119328271</v>
+        <v>1.271070830954372</v>
       </c>
       <c r="G21">
-        <v>0.002439840594635874</v>
+        <v>0.0007785379588040246</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05098846304694149</v>
+        <v>0.06536488759064696</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5898340189870623</v>
+        <v>0.8011811757499459</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.017731403028705</v>
+        <v>1.692021585311863</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.387084433547159</v>
+        <v>6.054977930914049</v>
       </c>
       <c r="C22">
-        <v>0.3485701005223802</v>
+        <v>0.6210697030812469</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2264143114892043</v>
+        <v>0.1097097552197823</v>
       </c>
       <c r="F22">
-        <v>1.891051587775976</v>
+        <v>1.332153087699027</v>
       </c>
       <c r="G22">
-        <v>0.002437644340617464</v>
+        <v>0.000774679996773921</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05182403474042729</v>
+        <v>0.06804422799552157</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6044434753386554</v>
+        <v>0.8571291794446267</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.003149123574872</v>
+        <v>1.757677163040569</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.320700004925925</v>
+        <v>5.829421798178601</v>
       </c>
       <c r="C23">
-        <v>0.3430803849446988</v>
+        <v>0.6039754488843414</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2264501401244345</v>
+        <v>0.1080334073946254</v>
       </c>
       <c r="F23">
-        <v>1.890123558279825</v>
+        <v>1.29922320078424</v>
       </c>
       <c r="G23">
-        <v>0.002438808761157654</v>
+        <v>0.0007767341354525007</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05137722450979254</v>
+        <v>0.0666100009672661</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5966352701689743</v>
+        <v>0.827213255870447</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.010727821106173</v>
+        <v>1.721871146419375</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.069350582634911</v>
+        <v>4.98110415126564</v>
       </c>
       <c r="C24">
-        <v>0.3222555677249659</v>
+        <v>0.5396464393470239</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2267237174917405</v>
+        <v>0.1019651323535946</v>
       </c>
       <c r="F24">
-        <v>1.888756783374149</v>
+        <v>1.181433032819697</v>
       </c>
       <c r="G24">
-        <v>0.002443389722531578</v>
+        <v>0.0007846269513118047</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04970382838452636</v>
+        <v>0.06126648176427807</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5673031524296306</v>
+        <v>0.7150568285536991</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.043907435613761</v>
+        <v>1.602332100526837</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.798454278962879</v>
+        <v>4.07583375814238</v>
       </c>
       <c r="C25">
-        <v>0.2997292094315185</v>
+        <v>0.4709374681435179</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2273145162331041</v>
+        <v>0.09596473968813157</v>
       </c>
       <c r="F25">
-        <v>1.891861243200651</v>
+        <v>1.067360122325496</v>
       </c>
       <c r="G25">
-        <v>0.002448698640625379</v>
+        <v>0.000793411077500751</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04794002190616453</v>
+        <v>0.05566691013451219</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5361869226713765</v>
+        <v>0.5960953349851366</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.089208205811104</v>
+        <v>1.503423279024844</v>
       </c>
     </row>
   </sheetData>
